--- a/設計/Rr.wing/解析/迎角/データシート.xlsx
+++ b/設計/Rr.wing/解析/迎角/データシート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku_sk\Documents\Inventor\AeroCAD2018\CAD\Inventor\Aero Parts\R-wing\type7-naca97\解析用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ku_sk\Documents\Inventor\AeroCAD2018\設計\Rr.wing\解析\迎角\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="19560" windowHeight="8055" tabRatio="875"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="19560" windowHeight="8055" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69D0-436C-BDDE-A69BAF854CCF}"/>
+              <c16:uniqueId val="{00000000-168D-49FA-8686-52F58C1C1745}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -562,7 +562,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69D0-436C-BDDE-A69BAF854CCF}"/>
+              <c16:uniqueId val="{00000001-168D-49FA-8686-52F58C1C1745}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -685,7 +685,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-69D0-436C-BDDE-A69BAF854CCF}"/>
+              <c16:uniqueId val="{00000002-168D-49FA-8686-52F58C1C1745}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1583,21 +1583,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>169207</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1880,7 +1882,7 @@
   <dimension ref="B2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/設計/Rr.wing/解析/迎角/データシート.xlsx
+++ b/設計/Rr.wing/解析/迎角/データシート.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="19560" windowHeight="8055" tabRatio="875"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="19560" windowHeight="8055" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="naca97-0deg" sheetId="2" r:id="rId2"/>
-    <sheet name="naca97-5deg" sheetId="7" r:id="rId3"/>
-    <sheet name="naca97-8deg" sheetId="9" r:id="rId4"/>
-    <sheet name="naca97-9deg" sheetId="11" r:id="rId5"/>
-    <sheet name="naca97-10deg" sheetId="3" r:id="rId6"/>
-    <sheet name="naca97-11deg" sheetId="12" r:id="rId7"/>
-    <sheet name="naca97-12deg" sheetId="10" r:id="rId8"/>
-    <sheet name="naca97-15deg" sheetId="8" r:id="rId9"/>
-    <sheet name="naca97-20deg" sheetId="4" r:id="rId10"/>
-    <sheet name="naca97-30deg" sheetId="5" r:id="rId11"/>
-    <sheet name="calc" sheetId="6" r:id="rId12"/>
+    <sheet name="check15deg" sheetId="13" r:id="rId2"/>
+    <sheet name="naca97-0deg" sheetId="2" r:id="rId3"/>
+    <sheet name="naca97-5deg" sheetId="7" r:id="rId4"/>
+    <sheet name="naca97-8deg" sheetId="9" r:id="rId5"/>
+    <sheet name="naca97-9deg" sheetId="11" r:id="rId6"/>
+    <sheet name="naca97-10deg" sheetId="3" r:id="rId7"/>
+    <sheet name="naca97-11deg" sheetId="12" r:id="rId8"/>
+    <sheet name="naca97-12deg" sheetId="10" r:id="rId9"/>
+    <sheet name="naca97-15deg" sheetId="8" r:id="rId10"/>
+    <sheet name="naca97-20deg" sheetId="4" r:id="rId11"/>
+    <sheet name="naca97-30deg" sheetId="5" r:id="rId12"/>
+    <sheet name="calc" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +178,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>check15</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,13 +247,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +313,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,32 +1933,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L6"/>
+  <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="1">
         <v>0</v>
@@ -1936,8 +1990,11 @@
       <c r="L3" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1971,8 +2028,11 @@
       <c r="L4" s="1">
         <v>0.97788399999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N4" s="1">
+        <v>0.50031800000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2006,8 +2066,11 @@
       <c r="L5" s="1">
         <v>2.0398299999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N5" s="1">
+        <v>4.5386300000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2079,7 @@
         <v>9.0580602003764437</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:L6" si="0">D5/D4</f>
+        <f t="shared" ref="D6:N6" si="0">D5/D4</f>
         <v>8.4082633053221283</v>
       </c>
       <c r="E6" s="1">
@@ -2050,6 +2113,10 @@
       <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>2.0859631612747522</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0714905320216346</v>
       </c>
     </row>
   </sheetData>
@@ -2122,31 +2189,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7642899999999999</v>
+        <v>2.2002299999999999</v>
       </c>
       <c r="D3">
-        <v>-12.1792</v>
+        <v>-9.5853699999999993</v>
       </c>
       <c r="E3">
-        <v>-59.284100000000002</v>
+        <v>-61.939500000000002</v>
       </c>
       <c r="F3">
-        <v>-0.76737599999999995</v>
+        <v>-0.76220600000000005</v>
       </c>
       <c r="G3">
-        <v>6.1758199999999999E-2</v>
+        <v>6.0589200000000003E-2</v>
       </c>
       <c r="H3">
-        <v>-12.9465</v>
+        <v>-10.3476</v>
       </c>
       <c r="I3">
-        <v>-59.222299999999997</v>
+        <v>-61.878900000000002</v>
       </c>
       <c r="J3">
-        <v>-0.76434800000000003</v>
+        <v>-0.73846299999999998</v>
       </c>
       <c r="K3">
-        <v>-3.49641</v>
+        <v>-4.4160399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2248,31 +2315,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7644000000000002</v>
+        <v>2.7642899999999999</v>
       </c>
       <c r="D3">
-        <v>-21.236899999999999</v>
+        <v>-12.1792</v>
       </c>
       <c r="E3">
-        <v>-45.665100000000002</v>
+        <v>-59.284100000000002</v>
       </c>
       <c r="F3">
-        <v>-0.62004300000000001</v>
+        <v>-0.76737599999999995</v>
       </c>
       <c r="G3">
-        <v>7.2169399999999995E-2</v>
+        <v>6.1758199999999999E-2</v>
       </c>
       <c r="H3">
-        <v>-21.856999999999999</v>
+        <v>-12.9465</v>
       </c>
       <c r="I3">
-        <v>-45.5929</v>
+        <v>-59.222299999999997</v>
       </c>
       <c r="J3">
-        <v>-0.97788399999999998</v>
+        <v>-0.76434800000000003</v>
       </c>
       <c r="K3">
-        <v>-2.0398299999999998</v>
+        <v>-3.49641</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2317,6 +2384,132 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7644000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-21.236899999999999</v>
+      </c>
+      <c r="E3">
+        <v>-45.665100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.62004300000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.2169399999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-45.5929</v>
+      </c>
+      <c r="J3">
+        <v>-0.97788399999999998</v>
+      </c>
+      <c r="K3">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P107"/>
   <sheetViews>
@@ -5332,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -5386,31 +5579,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2008299999999998</v>
+        <v>1.7918499999999999</v>
       </c>
       <c r="D3">
-        <v>-2.0578799999999999</v>
+        <v>-2.2067199999999998</v>
       </c>
       <c r="E3">
-        <v>-25.3018</v>
+        <v>-25.5885</v>
       </c>
       <c r="F3">
-        <v>-0.73481600000000002</v>
+        <v>-0.61198200000000003</v>
       </c>
       <c r="G3">
-        <v>5.2858899999999997E-3</v>
+        <v>1.8678899999999998E-2</v>
       </c>
       <c r="H3">
-        <v>-2.7927</v>
+        <v>-2.8187000000000002</v>
       </c>
       <c r="I3">
-        <v>-25.296500000000002</v>
+        <v>-25.569800000000001</v>
       </c>
       <c r="J3">
-        <v>-0.45743899999999998</v>
+        <v>-0.50031800000000004</v>
       </c>
       <c r="K3">
-        <v>-4.14351</v>
+        <v>-4.5386300000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -5458,7 +5651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -5512,31 +5705,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2007300000000001</v>
+        <v>2.2008299999999998</v>
       </c>
       <c r="D3">
-        <v>-3.9051</v>
+        <v>-2.0578799999999999</v>
       </c>
       <c r="E3">
-        <v>-39.411700000000003</v>
+        <v>-25.3018</v>
       </c>
       <c r="F3">
-        <v>-0.77860799999999997</v>
+        <v>-0.73481600000000002</v>
       </c>
       <c r="G3">
-        <v>2.99682E-2</v>
+        <v>5.2858899999999997E-3</v>
       </c>
       <c r="H3">
-        <v>-4.6837</v>
+        <v>-2.7927</v>
       </c>
       <c r="I3">
-        <v>-39.381799999999998</v>
+        <v>-25.296500000000002</v>
       </c>
       <c r="J3">
-        <v>-0.54264000000000001</v>
+        <v>-0.45743899999999998</v>
       </c>
       <c r="K3">
-        <v>-4.5626600000000002</v>
+        <v>-4.14351</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -5638,31 +5831,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2005699999999999</v>
+        <v>2.2007300000000001</v>
       </c>
       <c r="D3">
-        <v>-5.4670500000000004</v>
+        <v>-3.9051</v>
       </c>
       <c r="E3">
-        <v>-47.461100000000002</v>
+        <v>-39.411700000000003</v>
       </c>
       <c r="F3">
-        <v>-0.78847400000000001</v>
+        <v>-0.77860799999999997</v>
       </c>
       <c r="G3">
-        <v>4.3745800000000001E-2</v>
+        <v>2.99682E-2</v>
       </c>
       <c r="H3">
-        <v>-6.2555300000000003</v>
+        <v>-4.6837</v>
       </c>
       <c r="I3">
-        <v>-47.417299999999997</v>
+        <v>-39.381799999999998</v>
       </c>
       <c r="J3">
-        <v>-0.612487</v>
+        <v>-0.54264000000000001</v>
       </c>
       <c r="K3">
-        <v>-4.64269</v>
+        <v>-4.5626600000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -5764,31 +5957,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2010100000000001</v>
+        <v>2.2005699999999999</v>
       </c>
       <c r="D3">
-        <v>-6.0567099999999998</v>
+        <v>-5.4670500000000004</v>
       </c>
       <c r="E3">
-        <v>-50.1798</v>
+        <v>-47.461100000000002</v>
       </c>
       <c r="F3">
-        <v>-0.79196100000000003</v>
+        <v>-0.78847400000000001</v>
       </c>
       <c r="G3">
-        <v>4.8119700000000001E-2</v>
+        <v>4.3745800000000001E-2</v>
       </c>
       <c r="H3">
-        <v>-6.8486700000000003</v>
+        <v>-6.2555300000000003</v>
       </c>
       <c r="I3">
-        <v>-50.131700000000002</v>
+        <v>-47.417299999999997</v>
       </c>
       <c r="J3">
-        <v>-0.63784099999999999</v>
+        <v>-0.612487</v>
       </c>
       <c r="K3">
-        <v>-4.6689400000000001</v>
+        <v>-4.64269</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -5833,6 +6026,132 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2010100000000001</v>
+      </c>
+      <c r="D3">
+        <v>-6.0567099999999998</v>
+      </c>
+      <c r="E3">
+        <v>-50.1798</v>
+      </c>
+      <c r="F3">
+        <v>-0.79196100000000003</v>
+      </c>
+      <c r="G3">
+        <v>4.8119700000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>-6.8486700000000003</v>
+      </c>
+      <c r="I3">
+        <v>-50.131700000000002</v>
+      </c>
+      <c r="J3">
+        <v>-0.63784099999999999</v>
+      </c>
+      <c r="K3">
+        <v>-4.6689400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5956,132 +6275,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.20031</v>
-      </c>
-      <c r="D3">
-        <v>-7.2411099999999999</v>
-      </c>
-      <c r="E3">
-        <v>-54.735999999999997</v>
-      </c>
-      <c r="F3">
-        <v>-0.78707199999999999</v>
-      </c>
-      <c r="G3">
-        <v>5.4427700000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>-8.0281900000000004</v>
-      </c>
-      <c r="I3">
-        <v>-54.681600000000003</v>
-      </c>
-      <c r="J3">
-        <v>-0.67925999999999997</v>
-      </c>
-      <c r="K3">
-        <v>-4.6265799999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6143,31 +6336,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2004199999999998</v>
+        <v>2.20031</v>
       </c>
       <c r="D3">
-        <v>-7.8860900000000003</v>
+        <v>-7.2411099999999999</v>
       </c>
       <c r="E3">
-        <v>-57.124899999999997</v>
+        <v>-54.735999999999997</v>
       </c>
       <c r="F3">
-        <v>-0.78408500000000003</v>
+        <v>-0.78707199999999999</v>
       </c>
       <c r="G3">
-        <v>5.6764700000000001E-2</v>
+        <v>5.4427700000000002E-2</v>
       </c>
       <c r="H3">
-        <v>-8.6701800000000002</v>
+        <v>-8.0281900000000004</v>
       </c>
       <c r="I3">
-        <v>-57.068199999999997</v>
+        <v>-54.681600000000003</v>
       </c>
       <c r="J3">
-        <v>-0.70048699999999997</v>
+        <v>-0.67925999999999997</v>
       </c>
       <c r="K3">
-        <v>-4.61069</v>
+        <v>-4.6265799999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -6269,31 +6462,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2002299999999999</v>
+        <v>2.2004199999999998</v>
       </c>
       <c r="D3">
-        <v>-9.5853699999999993</v>
+        <v>-7.8860900000000003</v>
       </c>
       <c r="E3">
-        <v>-61.939500000000002</v>
+        <v>-57.124899999999997</v>
       </c>
       <c r="F3">
-        <v>-0.76220600000000005</v>
+        <v>-0.78408500000000003</v>
       </c>
       <c r="G3">
-        <v>6.0589200000000003E-2</v>
+        <v>5.6764700000000001E-2</v>
       </c>
       <c r="H3">
-        <v>-10.3476</v>
+        <v>-8.6701800000000002</v>
       </c>
       <c r="I3">
-        <v>-61.878900000000002</v>
+        <v>-57.068199999999997</v>
       </c>
       <c r="J3">
-        <v>-0.73846299999999998</v>
+        <v>-0.70048699999999997</v>
       </c>
       <c r="K3">
-        <v>-4.4160399999999997</v>
+        <v>-4.61069</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">

--- a/設計/Rr.wing/解析/迎角/データシート.xlsx
+++ b/設計/Rr.wing/解析/迎角/データシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="19560" windowHeight="8055" tabRatio="875"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="19560" windowHeight="8055" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,14 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
   <si>
     <t>naca97</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cl</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -182,6 +174,14 @@
     <t>check15</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -313,10 +313,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cd</c:v>
+                  <c:v>CD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -506,7 +506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cl</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1936,17 +1936,17 @@
   <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -1959,7 +1959,7 @@
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -1990,13 +1990,13 @@
       <c r="L3" s="1">
         <v>30</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>30</v>
+      <c r="N3" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>0.45743899999999998</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>4.14351</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <f>C5/C4</f>
@@ -2143,42 +2143,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2269,42 +2269,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2395,42 +2395,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2533,92 +2533,92 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>1.206</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>735.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
@@ -5533,42 +5533,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -5659,42 +5659,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -5785,42 +5785,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -5911,42 +5911,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -6037,42 +6037,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -6163,42 +6163,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -6290,42 +6290,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -6416,42 +6416,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
